--- a/Datasets_Processing/REILLY 2020 DATABASE/Data ownership of your datasets (James Reilly).xlsx
+++ b/Datasets_Processing/REILLY 2020 DATABASE/Data ownership of your datasets (James Reilly).xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">TO_DO</t>
   </si>
   <si>
-    <t xml:space="preserve">J. R. Reilly</t>
+    <t xml:space="preserve">James R. Reilly</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Ecology, Evolution and Natural Resources, Rutgers University, New Brunswick, NJ 08901, USA</t>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">S. J. Fleischer</t>
   </si>
   <si>
-    <t xml:space="preserve">J. Gibbs5</t>
+    <t xml:space="preserve">J. Gibbs</t>
   </si>
   <si>
     <t xml:space="preserve">R. L. Gillespie</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">Department of Crop and Soil Science, Oregon State University, Corvallis, OR 97331, USA</t>
   </si>
   <si>
-    <t xml:space="preserve">N. Joshi15</t>
+    <t xml:space="preserve">N. Joshi</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Entomology and Plant Pathology, University of Arkansas, Fayetteville, AR 72701, USA</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">National Park Service, Yosemite National Park, CA 95389, USA</t>
   </si>
   <si>
-    <t xml:space="preserve">N. M. Williams</t>
+    <t xml:space="preserve">Neal M. Williams</t>
   </si>
   <si>
     <t xml:space="preserve">J. K. Wilson</t>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">R. Isaacs</t>
   </si>
   <si>
-    <t xml:space="preserve">R. Winfree</t>
+    <t xml:space="preserve">Rachael Winfree</t>
   </si>
 </sst>
 </file>
@@ -221,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -273,22 +273,24 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="AdvOTd67905e7"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -332,7 +334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -349,15 +351,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,6 +376,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -381,10 +447,10 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.99"/>
@@ -433,10 +499,10 @@
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -447,10 +513,10 @@
       <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="0" t="s">
@@ -461,10 +527,10 @@
       <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="0" t="s">
@@ -475,10 +541,10 @@
       <c r="A7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="0" t="s">
@@ -489,10 +555,10 @@
       <c r="A8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="0" t="s">
@@ -503,10 +569,10 @@
       <c r="A9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="0" t="s">
@@ -517,10 +583,10 @@
       <c r="A10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="0" t="s">
@@ -531,10 +597,10 @@
       <c r="A11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="0" t="s">
@@ -545,10 +611,10 @@
       <c r="A12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="0" t="s">
@@ -559,10 +625,10 @@
       <c r="A13" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="0" t="s">
@@ -573,10 +639,10 @@
       <c r="A14" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="0" t="s">
@@ -587,10 +653,10 @@
       <c r="A15" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="0" t="s">
@@ -601,10 +667,10 @@
       <c r="A16" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="0" t="s">
@@ -615,10 +681,10 @@
       <c r="A17" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="0" t="s">
@@ -629,10 +695,10 @@
       <c r="A18" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="0" t="s">
@@ -643,10 +709,10 @@
       <c r="A19" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="0" t="s">
@@ -657,10 +723,10 @@
       <c r="A20" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="0" t="s">
@@ -671,10 +737,10 @@
       <c r="A21" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="0" t="s">
@@ -685,10 +751,10 @@
       <c r="A22" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="0" t="s">
@@ -699,10 +765,10 @@
       <c r="A23" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="0" t="s">
@@ -713,10 +779,10 @@
       <c r="A24" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="0" t="s">
@@ -727,10 +793,10 @@
       <c r="A25" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="0" t="s">
@@ -741,10 +807,10 @@
       <c r="A26" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E26" s="0" t="s">
@@ -755,10 +821,10 @@
       <c r="A27" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="0" t="s">
@@ -769,10 +835,10 @@
       <c r="A28" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="0" t="s">
@@ -783,10 +849,10 @@
       <c r="A29" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="0" t="s">
@@ -797,10 +863,10 @@
       <c r="A30" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="0" t="s">
@@ -811,10 +877,10 @@
       <c r="A31" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="0" t="s">
@@ -825,10 +891,10 @@
       <c r="A32" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>56</v>
       </c>
       <c r="E32" s="0" t="s">
@@ -839,10 +905,10 @@
       <c r="A33" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="0" t="s">
@@ -853,10 +919,10 @@
       <c r="A34" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="0" t="s">
@@ -867,10 +933,10 @@
       <c r="A35" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="0" t="s">
@@ -881,10 +947,10 @@
       <c r="A36" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="0" t="s">
@@ -895,10 +961,10 @@
       <c r="A37" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E37" s="0" t="s">
@@ -909,10 +975,10 @@
       <c r="A38" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="0" t="s">
@@ -923,10 +989,10 @@
       <c r="A39" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="0" t="s">
